--- a/new words/word power made easy 单词.xlsx
+++ b/new words/word power made easy 单词.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\Word-Power-Made-Easy\new words\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD75EB12-85BB-4680-A501-2E7FCCC354CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="32256" yWindow="792" windowWidth="18924" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,66 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>resentment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audible complaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-isolation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision of this book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheedle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cajole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promptness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manuscript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +388,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/new words/word power made easy 单词.xlsx
+++ b/new words/word power made easy 单词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\Word-Power-Made-Easy\new words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD75EB12-85BB-4680-A501-2E7FCCC354CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3EE76C-F05D-4E7B-B30B-C77C3B6C059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32256" yWindow="792" windowWidth="18924" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32256" yWindow="792" windowWidth="20796" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>resentment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,444 @@
   </si>
   <si>
     <t>manuscript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT Resentment is bitterness and anger that someone feels about something. 怨恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɪˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zentm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ A sound that is audible is loud enough to be heard. 听得见的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我隔离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɪˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɪʒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-VAR To make a revision of something that is written or something that has been decided means to make changes to it 
+in order to improve it, make it more modern, or make it more suitable for a particular purpose. 修改; 修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA0A0A0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA0A0A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dəbl]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ɡo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T If you goad someone, you deliberately make them feel angry or irritated, often causing them to react by doing something. 刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[prɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T If you prod someone or something, you give them a quick push with your finger or with a pointed object. (用手指或尖物) 捅
+V-T If you prod someone into doing something, you remind or persuade them to do it. 敦促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dl]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T/V-I If you say that someone wheedles, you mean that they try to persuade someone to do or give them what they want, 
+for example, by saying nice things that they do not mean. 哄骗; 劝诱 [表不满]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>əˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T If you cajole someone into doing something, you get them to do it after persuading them for some time. 说服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mptn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机敏，迅速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mænjuskr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pt]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-COUNT A manuscript is a handwritten or typed document, especially a writer's first version of a book before it is published. 手稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +522,28 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA0A0A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA0A0A0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,8 +567,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,65 +855,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="113.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/new words/word power made easy 单词.xlsx
+++ b/new words/word power made easy 单词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\Word-Power-Made-Easy\new words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3EE76C-F05D-4E7B-B30B-C77C3B6C059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C69D49-96CC-41CF-B790-BD8E7FBFDCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32256" yWindow="792" windowWidth="20796" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33636" yWindow="1200" windowWidth="18924" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -858,7 +858,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/new words/word power made easy 单词.xlsx
+++ b/new words/word power made easy 单词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\Word-Power-Made-Easy\new words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C69D49-96CC-41CF-B790-BD8E7FBFDCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0AFA5-26C4-4A44-A880-9438DC3B73BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33636" yWindow="1200" windowWidth="18924" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34824" yWindow="1104" windowWidth="18924" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>resentment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,6 +502,100 @@
   </si>
   <si>
     <t>N-COUNT A manuscript is a handwritten or typed document, especially a writer's first version of a book before it is published. 手稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brief intermission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ˌɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɪʃ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-COUNT An intermission is a short break between two parts of a concert, show, or film. 幕间休息；中场休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -975,6 +1069,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new words/word power made easy 单词.xlsx
+++ b/new words/word power made easy 单词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\Word-Power-Made-Easy\new words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0AFA5-26C4-4A44-A880-9438DC3B73BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA59208-C77F-4747-8348-AE3EFF918BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34824" yWindow="1104" windowWidth="18924" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>resentment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,60 @@
   </si>
   <si>
     <t>N-COUNT An intermission is a short break between two parts of a concert, show, or film. 幕间休息；中场休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phonetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>əˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ of or relating to phonetics 语音的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1080,6 +1134,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new words/word power made easy 单词.xlsx
+++ b/new words/word power made easy 单词.xlsx
@@ -1,77 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\Word-Power-Made-Easy\new words\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA59208-C77F-4747-8348-AE3EFF918BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>resentment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɪˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zentm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt]</t>
+    </r>
+  </si>
+  <si>
+    <t>N-UNCOUNT Resentment is bitterness and anger that someone feels about something. 怨恨</t>
   </si>
   <si>
     <t>audible complaint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ˈɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA0A0A0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA0A0A0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dəbl]</t>
+    </r>
+  </si>
+  <si>
+    <t>ADJ A sound that is audible is loud enough to be heard. 听得见的</t>
   </si>
   <si>
     <t>self-isolation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我隔离</t>
   </si>
   <si>
     <t>revision of this book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wheedle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cajole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promptness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manuscript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N-UNCOUNT Resentment is bitterness and anger that someone feels about something. 怨恨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[r</t>
     </r>
     <r>
@@ -79,7 +134,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ɪˈ</t>
@@ -89,61 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zentm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ə</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nt]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADJ A sound that is audible is loud enough to be heard. 听得见的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我隔离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ɪˈ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>v</t>
@@ -153,7 +153,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ɪʒ</t>
@@ -163,108 +162,103 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>n]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N-VAR To make a revision of something that is written or something that has been decided means to make changes to it 
 in order to improve it, make it more modern, or make it more suitable for a particular purpose. 修改; 修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[ˈɔ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA0A0A0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+  </si>
+  <si>
+    <t>goad</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ɡo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d]</t>
+    </r>
+  </si>
+  <si>
+    <t>V-T If you goad someone, you deliberately make them feel angry or irritated, often causing them to react by doing something. 刺激</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[prɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="1"/>
       </rPr>
       <t>ː</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <color rgb="FFA0A0A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dəbl]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[ɡo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ʊ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V-T If you goad someone, you deliberately make them feel angry or irritated, often causing them to react by doing something. 刺激</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[prɑ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V-T If you prod someone or something, you give them a quick push with your finger or with a pointed object. (用手指或尖物) 捅
 V-T If you prod someone into doing something, you remind or persuade them to do it. 敦促</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>wheedle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
@@ -272,7 +266,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ˈ</t>
@@ -282,7 +275,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>wi</t>
@@ -292,7 +285,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ː</t>
@@ -302,20 +294,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>dl]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V-T/V-I If you say that someone wheedles, you mean that they try to persuade someone to do or give them what they want, 
 for example, by saying nice things that they do not mean. 哄骗; 劝诱 [表不满]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>cajole</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[k</t>
     </r>
     <r>
@@ -323,7 +323,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>əˈ</t>
@@ -333,7 +332,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -343,7 +342,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ʒ</t>
@@ -353,7 +351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>o</t>
@@ -363,7 +361,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ʊ</t>
@@ -373,19 +370,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>l]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V-T If you cajole someone into doing something, you get them to do it after persuading them for some time. 说服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>promptness</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
@@ -393,7 +398,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ˈ</t>
@@ -403,7 +407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>prɑ</t>
@@ -413,7 +417,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ː</t>
@@ -423,7 +426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>mptn</t>
@@ -433,7 +436,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ə</t>
@@ -443,19 +445,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>s]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>机敏，迅速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>manuscript</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
@@ -463,7 +473,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ˈ</t>
@@ -473,7 +482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>mænjuskr</t>
@@ -483,7 +492,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ɪ</t>
@@ -493,23 +501,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>pt]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N-COUNT A manuscript is a handwritten or typed document, especially a writer's first version of a book before it is published. 手稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>brief intermission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
@@ -517,7 +529,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ˌɪ</t>
@@ -527,7 +538,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>nt</t>
@@ -537,7 +548,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ə</t>
@@ -547,7 +557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>r</t>
@@ -557,7 +567,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ˈ</t>
@@ -567,7 +576,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>m</t>
@@ -577,7 +586,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ɪʃ</t>
@@ -587,23 +595,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>n]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N-COUNT An intermission is a short break between two parts of a concert, show, or film. 幕间休息；中场休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phonetic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[f</t>
     </r>
     <r>
@@ -611,7 +623,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>əˈ</t>
@@ -621,7 +632,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>net</t>
@@ -631,7 +642,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>ɪ</t>
@@ -641,34 +651,243 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>k]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ADJ of or relating to phonetics 语音的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtuoso</t>
+  </si>
+  <si>
+    <t>[ˌvɜːtʃuˈəʊsəʊ]</t>
+  </si>
+  <si>
+    <t>N-COUNT A virtuoso is someone who is extremely good at something, especially at playing a musical instrument. 大师 (尤指乐器演奏高手)</t>
+  </si>
+  <si>
+    <t>bumbling</t>
+  </si>
+  <si>
+    <t>[ˈbʌmblɪŋ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJ If you describe a person or their behaviour as bumbling, you mean that they behave in a confused, disorganized way, making mistakes and
+ usually not achieving anything. 胡乱的 </t>
+  </si>
+  <si>
+    <t>amateur</t>
+  </si>
+  <si>
+    <t>[ˈæmətə(r)]</t>
+  </si>
+  <si>
+    <t>N-COUNT An amateur is someone who does something as a hobby and not as a job. 业余爱好者</t>
+  </si>
+  <si>
+    <t>recognition vocabulary</t>
+  </si>
+  <si>
+    <t>认知词汇</t>
+  </si>
+  <si>
+    <t>assess</t>
+  </si>
+  <si>
+    <t>[əˈses]</t>
+  </si>
+  <si>
+    <t>V-T When you assess a person, thing, or situation, you consider them in order to make a judgment about them. 评估</t>
+  </si>
+  <si>
+    <t>quantitative</t>
+  </si>
+  <si>
+    <t>[ˈkwɒntɪtətɪv]</t>
+  </si>
+  <si>
+    <t>ADJ Quantitative means relating to different sizes or amounts of things. 数量的; 与数有关的 [正式]</t>
+  </si>
+  <si>
+    <t>drastic</t>
+  </si>
+  <si>
+    <t>[ˈdræstɪk]</t>
+  </si>
+  <si>
+    <t>ADJ A drastic change is a very great change. 剧烈的</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -676,14 +895,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFA0A0A0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -691,19 +908,205 @@
       <sz val="8"/>
       <color rgb="FFA0A0A0"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -711,30 +1114,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -783,7 +1478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -818,7 +1513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -992,161 +1687,230 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="113.6640625" customWidth="1"/>
+    <col min="3" max="3" width="122.888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="27.6" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6" ht="27.6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+    <row r="7" ht="27.6" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" ht="27.6" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>